--- a/work/Question_list.xlsx
+++ b/work/Question_list.xlsx
@@ -1740,15 +1740,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>,1991,tuvung,</t>
+    <t>,1991,vocabulary,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>,1991,nguphap,</t>
+    <t>,1991,grammar,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>,1991,doc,</t>
+    <t>,1991,reading,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5196,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E2" t="str">
         <f>""""&amp;Sheet1!F2&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F2" t="str">
         <f>""""&amp;Sheet1!G2&amp;""""</f>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E6" t="str">
         <f>""""&amp;Sheet1!F6&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F6" t="str">
         <f>""""&amp;Sheet1!G6&amp;""""</f>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="E8" t="str">
         <f>""""&amp;Sheet1!F8&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F8" t="str">
         <f>""""&amp;Sheet1!G8&amp;""""</f>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="E11" t="str">
         <f>""""&amp;Sheet1!F11&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F11" t="str">
         <f>""""&amp;Sheet1!G11&amp;""""</f>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="E15" t="str">
         <f>""""&amp;Sheet1!F15&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F15" t="str">
         <f>""""&amp;Sheet1!G15&amp;""""</f>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E19" t="str">
         <f>""""&amp;Sheet1!F19&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F19" t="str">
         <f>""""&amp;Sheet1!G19&amp;""""</f>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="E22" t="str">
         <f>""""&amp;Sheet1!F22&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F22" t="str">
         <f>""""&amp;Sheet1!G22&amp;""""</f>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="E26" t="str">
         <f>""""&amp;Sheet1!F26&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F26" t="str">
         <f>""""&amp;Sheet1!G26&amp;""""</f>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="E31" t="str">
         <f>""""&amp;Sheet1!F31&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F31" t="str">
         <f>""""&amp;Sheet1!G31&amp;""""</f>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E34" t="str">
         <f>""""&amp;Sheet1!F34&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F34" t="str">
         <f>""""&amp;Sheet1!G34&amp;""""</f>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="E37" t="str">
         <f>""""&amp;Sheet1!F37&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F37" t="str">
         <f>""""&amp;Sheet1!G37&amp;""""</f>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="E47" t="str">
         <f>""""&amp;Sheet1!F47&amp;""""</f>
-        <v>",1991,tuvung,"</v>
+        <v>",1991,vocabulary,"</v>
       </c>
       <c r="F47" t="str">
         <f>""""&amp;Sheet1!G47&amp;""""</f>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="E57" t="str">
         <f>""""&amp;Sheet1!F57&amp;""""</f>
-        <v>",1991,nguphap,"</v>
+        <v>",1991,grammar,"</v>
       </c>
       <c r="F57" t="str">
         <f>""""&amp;Sheet1!G57&amp;""""</f>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="E72" t="str">
         <f>""""&amp;Sheet1!F72&amp;""""</f>
-        <v>",1991,nguphap,"</v>
+        <v>",1991,grammar,"</v>
       </c>
       <c r="F72" t="str">
         <f>""""&amp;Sheet1!G72&amp;""""</f>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="E82" t="str">
         <f>""""&amp;Sheet1!F82&amp;""""</f>
-        <v>",1991,nguphap,"</v>
+        <v>",1991,grammar,"</v>
       </c>
       <c r="F82" t="str">
         <f>""""&amp;Sheet1!G82&amp;""""</f>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="E87" t="str">
         <f>""""&amp;Sheet1!F87&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F87" t="str">
         <f>""""&amp;Sheet1!G87&amp;""""</f>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="E92" t="str">
         <f>""""&amp;Sheet1!F92&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F92" t="str">
         <f>""""&amp;Sheet1!G92&amp;""""</f>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="E97" t="str">
         <f>""""&amp;Sheet1!F97&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F97" t="str">
         <f>""""&amp;Sheet1!G97&amp;""""</f>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="E98" t="str">
         <f>""""&amp;Sheet1!F98&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F98" t="str">
         <f>""""&amp;Sheet1!G98&amp;""""</f>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="E99" t="str">
         <f>""""&amp;Sheet1!F99&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F99" t="str">
         <f>""""&amp;Sheet1!G99&amp;""""</f>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="E100" t="str">
         <f>""""&amp;Sheet1!F100&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F100" t="str">
         <f>""""&amp;Sheet1!G100&amp;""""</f>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="E101" t="str">
         <f>""""&amp;Sheet1!F101&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F101" t="str">
         <f>""""&amp;Sheet1!G101&amp;""""</f>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="E102" t="str">
         <f>""""&amp;Sheet1!F102&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F102" t="str">
         <f>""""&amp;Sheet1!G102&amp;""""</f>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="E103" t="str">
         <f>""""&amp;Sheet1!F103&amp;""""</f>
-        <v>",1991,doc,"</v>
+        <v>",1991,reading,"</v>
       </c>
       <c r="F103" t="str">
         <f>""""&amp;Sheet1!G103&amp;""""</f>
